--- a/Data/Config/configaration file.xlsx
+++ b/Data/Config/configaration file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Case Workflow\Data\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Data\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC7B3B3-9812-4C8B-A84B-3C821BC573CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A0A6FB-4B33-4B0C-8D97-F0755E7BFCF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Creation" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
   <si>
     <t>Key</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>NB-DFIBT-ADMN-CVC-2020-21-E-000100</t>
+  </si>
+  <si>
+    <t>Draft</t>
   </si>
 </sst>
 </file>
@@ -918,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C002457-937D-4461-811E-6168F43363B8}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1208,7 @@
         <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1273,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A46176-7EC0-4001-94EF-1DDEBAB0CD43}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config/configaration file.xlsx
+++ b/Data/Config/configaration file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Data\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A0A6FB-4B33-4B0C-8D97-F0755E7BFCF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3C4826-3E72-4653-B614-AAB8E2A9BDC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Creation" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
   <si>
     <t>Key</t>
   </si>
@@ -38,12 +38,6 @@
     <t>edmapp_URL</t>
   </si>
   <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>Notesheet_Filename</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>MS Excel Workbook 2007 / 2010</t>
   </si>
   <si>
-    <t>jd.monga</t>
-  </si>
-  <si>
     <t>Misc.Correspondence</t>
   </si>
   <si>
@@ -191,9 +182,6 @@
     <t>Abhishek Srivastava</t>
   </si>
   <si>
-    <t>User_Name</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
@@ -285,27 +273,6 @@
   </si>
   <si>
     <t>openlink</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>username1</t>
-  </si>
-  <si>
-    <t>password1</t>
-  </si>
-  <si>
-    <t>username2</t>
-  </si>
-  <si>
-    <t>rn.menon</t>
-  </si>
-  <si>
-    <t>NB-DFIBT-ADMN-CVC-2020-21-E-000100</t>
   </si>
   <si>
     <t>Draft</t>
@@ -315,10 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode=";;;**"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,12 +297,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -362,14 +320,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -651,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,96 +629,96 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -772,23 +726,23 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -796,7 +750,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -804,31 +758,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,18 +795,18 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -860,7 +814,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -868,47 +822,31 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -919,10 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C002457-937D-4461-811E-6168F43363B8}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,140 +882,140 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -1085,26 +1023,26 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
         <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1112,31 +1050,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,18 +1087,18 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1168,7 +1106,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1176,63 +1114,63 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1240,31 +1178,15 @@
         <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1274,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A46176-7EC0-4001-94EF-1DDEBAB0CD43}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1210,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1296,58 +1218,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config/configaration file.xlsx
+++ b/Data/Config/configaration file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Data\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3C4826-3E72-4653-B614-AAB8E2A9BDC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB1C486-0ACF-4D6D-803F-27F794FBFB30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Creation" sheetId="1" r:id="rId1"/>
@@ -607,9 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1198,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A46176-7EC0-4001-94EF-1DDEBAB0CD43}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config/configaration file.xlsx
+++ b/Data/Config/configaration file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Data\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB1C486-0ACF-4D6D-803F-27F794FBFB30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F75CE4-F4BC-4AAD-A994-85E0CA7551C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Creation" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>Nature_of_case</t>
   </si>
   <si>
-    <t>Uipath Test sample4</t>
-  </si>
-  <si>
     <t>Keyword</t>
   </si>
   <si>
@@ -158,12 +155,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Testing Case</t>
-  </si>
-  <si>
-    <t>Sample test</t>
-  </si>
-  <si>
     <t>FileNumber</t>
   </si>
   <si>
@@ -197,9 +188,6 @@
     <t>Import_Notesheet</t>
   </si>
   <si>
-    <t>Sample Keyword</t>
-  </si>
-  <si>
     <t>Sample Test Note Comments</t>
   </si>
   <si>
@@ -276,6 +264,18 @@
   </si>
   <si>
     <t>Draft</t>
+  </si>
+  <si>
+    <t>Creating Case Under Finance</t>
+  </si>
+  <si>
+    <t>Case Creation  Under Administration</t>
+  </si>
+  <si>
+    <t>Financial Purpose</t>
+  </si>
+  <si>
+    <t>Sample word document file</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -628,15 +630,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -657,18 +659,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -708,15 +710,15 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -729,39 +731,39 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -769,31 +771,31 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
         <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -801,7 +803,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -809,42 +811,42 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -858,7 +860,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,39 +882,39 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -925,18 +927,18 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,76 +986,76 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -1061,31 +1063,31 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -1093,7 +1095,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1101,90 +1103,90 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +1198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A46176-7EC0-4001-94EF-1DDEBAB0CD43}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1208,7 +1210,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1216,10 +1218,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config/configaration file.xlsx
+++ b/Data/Config/configaration file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Data\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F75CE4-F4BC-4AAD-A994-85E0CA7551C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD9C0D5-794A-4511-A219-E03A86FF26FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Creation" sheetId="1" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A46176-7EC0-4001-94EF-1DDEBAB0CD43}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
